--- a/results/07-2021_comparison_deflators.xlsx
+++ b/results/07-2021_comparison_deflators.xlsx
@@ -1628,37 +1628,37 @@
         <v>41</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1669,37 +1669,37 @@
         <v>41</v>
       </c>
       <c r="C30" t="n">
-        <v>5.711</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.132</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.323</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.676</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.726</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.707</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.739</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>4.771</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>4.819</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>4.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1710,28 +1710,28 @@
         <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1187</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0711</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0645</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.041</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0015</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0016</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1751,37 +1751,37 @@
         <v>41</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.1839</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.0246</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.4679</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1412</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6462</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4645</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1027</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0997</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3386</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0756</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1792,37 +1792,37 @@
         <v>41</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0087</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0154</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0449</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0455</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.0361</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0348</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0266</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0168</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.009</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1833,37 +1833,37 @@
         <v>41</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.4512</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3654</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2633</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0856</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0952</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.058</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0837</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0835</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1874,37 +1874,37 @@
         <v>41</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0718</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1281</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1434</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1456</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0759</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0933</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2033</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1704</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1029</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1915,37 +1915,37 @@
         <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1352</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1674</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0453</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0391</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0508</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0047</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0439</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1956,37 +1956,37 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3461</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1933</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0087</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0048</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0875</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0204</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0203</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0615</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0203</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1997,16 +1997,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2018,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2038,37 +2038,37 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1407</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0945</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0637</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0692</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2544</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0311</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0173</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0448</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0251</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0607</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2079,37 +2079,37 @@
         <v>41</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0624</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0923</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0087</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0017</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0016</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0042</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0117</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0229</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2120,34 +2120,34 @@
         <v>41</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0674</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1321</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0512</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0307</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.0376</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.0312</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.0085</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0106</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0223</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2161,37 +2161,37 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.8303</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.9687</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.8796</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8617</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5359</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3427</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1198</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1205</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0164</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3717</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2202,37 +2202,37 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>647.7</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>939.8</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1094.1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1214.1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1313.9</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1342.2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1341</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1325.6</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1275.6</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1217.4</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1151.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2243,37 +2243,37 @@
         <v>41</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0307</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3924</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0088</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.2396</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1644</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1004</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1415</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1265</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3123</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0519</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2284,37 +2284,37 @@
         <v>41</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2325,34 +2325,34 @@
         <v>41</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.7315</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1769</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0272</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2278</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.0087</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0083</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0082</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0494</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2271</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2366,31 +2366,31 @@
         <v>41</v>
       </c>
       <c r="C47" t="n">
-        <v>1.2581</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.725</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.2548</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0083</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0447</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0079</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.0084</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0211</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2407,37 +2407,37 @@
         <v>41</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.5679</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.2618</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1815</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.2307</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.1632</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.1829</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.1642</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.3432</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0827</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2448,37 +2448,37 @@
         <v>41</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0175</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0163</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0117</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0117</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.011</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.0107</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0079</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0147</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2489,37 +2489,37 @@
         <v>41</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0788</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0443</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0096</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0328</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0384</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0502</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0304</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0407</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0255</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2530,37 +2530,37 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1283</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1297</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0735</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0685</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.0393</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0646</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.0888</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0792</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0195</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2571,37 +2571,37 @@
         <v>41</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0098</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0036</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2612,37 +2612,37 @@
         <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>63.7781</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>76.7029</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>88.309</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>98.7593</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>108.1968</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>116.7476</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>124.5222</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>131.6179</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>138.1201</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>144.104</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>149.6357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2653,19 +2653,19 @@
         <v>41</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0077</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0011</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2694,37 +2694,37 @@
         <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0343</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0501</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0214</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0128</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0174</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0086</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2735,37 +2735,37 @@
         <v>42</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0041</v>
+        <v>0.0157</v>
       </c>
       <c r="D56" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.0052</v>
       </c>
-      <c r="E56" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.0047</v>
-      </c>
       <c r="K56" t="n">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0049</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="57">
@@ -2776,37 +2776,37 @@
         <v>42</v>
       </c>
       <c r="C57" t="n">
-        <v>263.077</v>
+        <v>268.788</v>
       </c>
       <c r="D57" t="n">
-        <v>264.58</v>
+        <v>268.712</v>
       </c>
       <c r="E57" t="n">
-        <v>265.661</v>
+        <v>269.984</v>
       </c>
       <c r="F57" t="n">
-        <v>267.071</v>
+        <v>271.441</v>
       </c>
       <c r="G57" t="n">
-        <v>268.524</v>
+        <v>273.2</v>
       </c>
       <c r="H57" t="n">
-        <v>269.999</v>
+        <v>274.725</v>
       </c>
       <c r="I57" t="n">
-        <v>271.512</v>
+        <v>276.219</v>
       </c>
       <c r="J57" t="n">
-        <v>273.037</v>
+        <v>277.776</v>
       </c>
       <c r="K57" t="n">
-        <v>274.587</v>
+        <v>279.358</v>
       </c>
       <c r="L57" t="n">
-        <v>276.151</v>
+        <v>280.97</v>
       </c>
       <c r="M57" t="n">
-        <v>277.725</v>
+        <v>282.605</v>
       </c>
     </row>
     <row r="58">
@@ -2817,37 +2817,37 @@
         <v>42</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1187</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1175</v>
+        <v>0.1886</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0093</v>
+        <v>0.0739</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0091</v>
+        <v>-0.0319</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0303</v>
+        <v>0.0288</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0297</v>
+        <v>0.0281</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.0375</v>
+        <v>-0.0355</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.0368</v>
+        <v>-0.0348</v>
       </c>
       <c r="K58" t="n">
         <v>0.0014</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0014</v>
+        <v>0.0013</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.0061</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="59">
@@ -2858,37 +2858,37 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>1.2095</v>
+        <v>0.0256</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9932</v>
+        <v>-0.0314</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9196</v>
+        <v>0.4517</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1703</v>
+        <v>-0.0291</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.6793</v>
+        <v>-0.0331</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.5492</v>
+        <v>-0.0847</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1552</v>
+        <v>-0.0525</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.0773</v>
+        <v>0.0224</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.7363</v>
+        <v>-0.3977</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.2138</v>
+        <v>-0.1382</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.2852</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="60">
@@ -2899,37 +2899,37 @@
         <v>42</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0006</v>
+        <v>0.0046</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0081</v>
+        <v>-0.0006</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0187</v>
+        <v>0.0033</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.0075</v>
+        <v>-0.0524</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0044</v>
+        <v>-0.0499</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0198</v>
+        <v>-0.0559</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.0061</v>
+        <v>-0.0409</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.0466</v>
+        <v>-0.0731</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0521</v>
+        <v>-0.0688</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.0345</v>
+        <v>-0.0435</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.0202</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="61">
@@ -2940,37 +2940,37 @@
         <v>42</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1956</v>
+        <v>-0.2556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3255</v>
+        <v>-0.0399</v>
       </c>
       <c r="E61" t="n">
-        <v>0.226</v>
+        <v>-0.0374</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1434</v>
+        <v>0.0578</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0643</v>
+        <v>0.1595</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.1462</v>
+        <v>-0.1174</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1566</v>
+        <v>-0.1516</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.0887</v>
+        <v>-0.1467</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.087</v>
+        <v>-0.1707</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1288</v>
+        <v>0.0453</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1312</v>
+        <v>0.1274</v>
       </c>
     </row>
     <row r="62">
@@ -2981,37 +2981,37 @@
         <v>42</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.0839</v>
+        <v>-0.0121</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.171</v>
+        <v>-0.0428</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1018</v>
+        <v>-0.0458</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1452</v>
+        <v>-0.0018</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4221</v>
+        <v>-0.2765</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.26</v>
+        <v>-0.184</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1785</v>
+        <v>-0.0851</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.2554</v>
+        <v>-0.0521</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.203</v>
+        <v>-0.0326</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.1188</v>
+        <v>-0.0159</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.1203</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="63">
@@ -3022,37 +3022,37 @@
         <v>42</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1352</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0952</v>
+        <v>0.2626</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2073</v>
+        <v>0.1621</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1234</v>
+        <v>0.1624</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1207</v>
+        <v>0.0699</v>
       </c>
       <c r="H63" t="n">
-        <v>0.079</v>
+        <v>0.0743</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1539</v>
+        <v>-0.1461</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.0856</v>
+        <v>-0.0814</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.084</v>
+        <v>-0.0799</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.0463</v>
+        <v>-0.0024</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.0453</v>
+        <v>-0.0853</v>
       </c>
     </row>
     <row r="64">
@@ -3063,37 +3063,37 @@
         <v>42</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3461</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2906</v>
+        <v>0.4839</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1144</v>
+        <v>0.1057</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1174</v>
+        <v>0.1222</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0226</v>
+        <v>0.1101</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.0363</v>
+        <v>-0.0133</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.131</v>
+        <v>-0.1514</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0952</v>
+        <v>-0.0749</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.1504</v>
+        <v>-0.0889</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.1337</v>
+        <v>-0.154</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.0886</v>
+        <v>-0.0847</v>
       </c>
     </row>
     <row r="65">
@@ -3104,25 +3104,25 @@
         <v>42</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0052</v>
+        <v>0.0097</v>
       </c>
       <c r="D65" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.0048</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0051</v>
-      </c>
       <c r="G65" t="n">
-        <v>0.0045</v>
+        <v>0.0044</v>
       </c>
       <c r="H65" t="n">
         <v>0.0049</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0051</v>
+        <v>0.005</v>
       </c>
       <c r="J65" t="n">
         <v>0.0051</v>
@@ -3131,10 +3131,10 @@
         <v>0.0051</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0052</v>
+        <v>0.0054</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0053</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="66">
@@ -3145,37 +3145,37 @@
         <v>42</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7541</v>
+        <v>-0.6134</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.9545</v>
+        <v>-1.0489</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6132</v>
+        <v>-0.5495</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.359</v>
+        <v>-1.2898</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2594</v>
+        <v>-0.5139</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.175</v>
+        <v>-0.2061</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1014</v>
+        <v>-0.1187</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.0345</v>
+        <v>0.0103</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0008</v>
+        <v>0.0259</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0158</v>
+        <v>0.0765</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0493</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="67">
@@ -3186,37 +3186,37 @@
         <v>42</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4337</v>
+        <v>0.3714</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2594</v>
+        <v>0.3517</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1254</v>
+        <v>-0.1341</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.0909</v>
+        <v>-0.0908</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1123</v>
+        <v>-0.1118</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.101</v>
+        <v>-0.1027</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.058</v>
+        <v>-0.0596</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.0442</v>
+        <v>-0.0484</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.6272</v>
+        <v>-0.6155</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.6771</v>
+        <v>-0.6541</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.3157</v>
+        <v>-0.3084</v>
       </c>
     </row>
     <row r="68">
@@ -3227,34 +3227,34 @@
         <v>42</v>
       </c>
       <c r="C68" t="n">
-        <v>0.111</v>
+        <v>0.1784</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.4663</v>
+        <v>-0.3343</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.1263</v>
+        <v>-1.1774</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9885</v>
+        <v>-1.0192</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.5151</v>
+        <v>-1.5097</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.1527</v>
+        <v>-1.1902</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.4883</v>
+        <v>-0.5195</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.3973</v>
+        <v>-0.4058</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.3314</v>
+        <v>-0.3421</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.2285</v>
+        <v>-0.2509</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -3268,37 +3268,37 @@
         <v>42</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.7206</v>
+        <v>-2.551</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.8087</v>
+        <v>-1.7773</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.983</v>
+        <v>-2.8625</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.9669</v>
+        <v>-2.1051</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.0628</v>
+        <v>-3.5269</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.376</v>
+        <v>-2.0333</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.5614</v>
+        <v>-1.6812</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.8552</v>
+        <v>-1.7347</v>
       </c>
       <c r="K69" t="n">
-        <v>-2.8425</v>
+        <v>-2.8588</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.6358</v>
+        <v>-1.2641</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.9551</v>
+        <v>-0.4868</v>
       </c>
     </row>
     <row r="70">
@@ -3309,37 +3309,37 @@
         <v>42</v>
       </c>
       <c r="C70" t="n">
-        <v>22074.9</v>
+        <v>22722.6</v>
       </c>
       <c r="D70" t="n">
-        <v>22394.5</v>
+        <v>23334.3</v>
       </c>
       <c r="E70" t="n">
-        <v>22692.2</v>
+        <v>23786.3</v>
       </c>
       <c r="F70" t="n">
-        <v>22973.9</v>
+        <v>24188</v>
       </c>
       <c r="G70" t="n">
-        <v>23206.5</v>
+        <v>24520.4</v>
       </c>
       <c r="H70" t="n">
-        <v>23456.2</v>
+        <v>24798.4</v>
       </c>
       <c r="I70" t="n">
-        <v>23702.6</v>
+        <v>25043.6</v>
       </c>
       <c r="J70" t="n">
-        <v>23929.4</v>
+        <v>25255</v>
       </c>
       <c r="K70" t="n">
-        <v>24183.2</v>
+        <v>25458.8</v>
       </c>
       <c r="L70" t="n">
-        <v>24450.1</v>
+        <v>25667.5</v>
       </c>
       <c r="M70" t="n">
-        <v>24725.2</v>
+        <v>25876.7</v>
       </c>
     </row>
     <row r="71">
@@ -3350,37 +3350,37 @@
         <v>42</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5008</v>
+        <v>0.5315</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4487</v>
+        <v>0.0563</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5305</v>
+        <v>0.5218</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2775</v>
+        <v>0.0379</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0271</v>
+        <v>0.1914</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0929</v>
+        <v>0.1933</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0677</v>
+        <v>0.2092</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0894</v>
+        <v>0.2159</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.5449</v>
+        <v>-0.2325</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.0466</v>
+        <v>0.0053</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1029</v>
+        <v>0.0942</v>
       </c>
     </row>
     <row r="72">
@@ -3391,37 +3391,37 @@
         <v>42</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0048</v>
+        <v>0.005</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0049</v>
+        <v>0.0053</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0048</v>
+        <v>0.0053</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0047</v>
+        <v>0.0053</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0047</v>
+        <v>0.0052</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0046</v>
+        <v>0.0051</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0046</v>
+        <v>0.0051</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0047</v>
+        <v>0.0051</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0047</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="73">
@@ -3432,37 +3432,37 @@
         <v>42</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.3175</v>
+        <v>-1.049</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.2256</v>
+        <v>-0.0486</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.23</v>
+        <v>-1.2028</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.1688</v>
+        <v>0.059</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0473</v>
+        <v>0.0341</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.038</v>
+        <v>-0.0468</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0433</v>
+        <v>-0.0516</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.0426</v>
+        <v>-0.0508</v>
       </c>
       <c r="K73" t="n">
-        <v>-1.1395</v>
+        <v>-1.09</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.2277</v>
+        <v>-0.0006</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.0005</v>
+        <v>-0.0006</v>
       </c>
     </row>
     <row r="74">
@@ -3473,31 +3473,31 @@
         <v>42</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.5289</v>
+        <v>-0.2708</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.5447</v>
+        <v>-1.2697</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.0199</v>
+        <v>-0.2747</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0196</v>
+        <v>-0.0279</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.0705</v>
+        <v>-1.0259</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.0202</v>
+        <v>-0.0281</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.0098</v>
+        <v>-0.0181</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.5583</v>
+        <v>-0.5372</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3514,37 +3514,37 @@
         <v>42</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0833</v>
+        <v>-0.6511</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2226</v>
+        <v>0.3356</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2488</v>
+        <v>-0.013</v>
       </c>
       <c r="F75" t="n">
-        <v>0.15</v>
+        <v>0.3314</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2896</v>
+        <v>0.0588</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1151</v>
+        <v>-0.0481</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.0307</v>
+        <v>-0.2135</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.1042</v>
+        <v>-0.2684</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5261</v>
+        <v>0.183</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0264</v>
+        <v>-0.0563</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.1264</v>
+        <v>-0.1339</v>
       </c>
     </row>
     <row r="76">
@@ -3555,37 +3555,37 @@
         <v>42</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.0131</v>
+        <v>-0.007</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.0115</v>
+        <v>-0.029</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.0109</v>
+        <v>-0.0272</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.0083</v>
+        <v>-0.02</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0091</v>
+        <v>-0.0208</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.0092</v>
+        <v>-0.0203</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.0093</v>
+        <v>-0.0201</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.0145</v>
+        <v>-0.0223</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.0194</v>
+        <v>-0.0234</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.0002</v>
+        <v>-0.0148</v>
       </c>
       <c r="M76" t="n">
-        <v>0.002</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="77">
@@ -3596,37 +3596,37 @@
         <v>42</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0458</v>
+        <v>0.1246</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1161</v>
+        <v>-0.1157</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003</v>
+        <v>0.0472</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.0113</v>
+        <v>-0.0209</v>
       </c>
       <c r="G77" t="n">
-        <v>0.003</v>
+        <v>-0.0299</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2291</v>
+        <v>0.1907</v>
       </c>
       <c r="I77" t="n">
-        <v>0.236</v>
+        <v>0.1859</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2297</v>
+        <v>0.1993</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2271</v>
+        <v>0.1864</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0087</v>
+        <v>-0.0168</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.0045</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="78">
@@ -3637,37 +3637,37 @@
         <v>42</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.0338</v>
+        <v>-0.1622</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0898</v>
+        <v>-0.2195</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1036</v>
+        <v>-0.1772</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0811</v>
+        <v>-0.1496</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1676</v>
+        <v>-0.2069</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.0972</v>
+        <v>-0.1619</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.078</v>
+        <v>-0.1668</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.0583</v>
+        <v>-0.1375</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.0473</v>
+        <v>-0.0668</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.0365</v>
+        <v>-0.0315</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.0371</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="79">
@@ -3678,37 +3678,37 @@
         <v>42</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0075</v>
+        <v>0.0173</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0065</v>
+        <v>0.0101</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0065</v>
+        <v>0.0071</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0077</v>
+        <v>0.0084</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0078</v>
+        <v>0.0085</v>
       </c>
       <c r="I79" t="n">
-        <v>0.008</v>
+        <v>0.0084</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0079</v>
+        <v>0.0083</v>
       </c>
       <c r="K79" t="n">
-        <v>0.008</v>
+        <v>0.0083</v>
       </c>
       <c r="L79" t="n">
-        <v>0.008</v>
+        <v>0.0084</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0081</v>
+        <v>0.0082</v>
       </c>
     </row>
     <row r="80">
@@ -3719,37 +3719,37 @@
         <v>42</v>
       </c>
       <c r="C80" t="n">
-        <v>91.2219</v>
+        <v>155</v>
       </c>
       <c r="D80" t="n">
-        <v>80.1611</v>
+        <v>156.864</v>
       </c>
       <c r="E80" t="n">
-        <v>70.4415</v>
+        <v>158.7505</v>
       </c>
       <c r="F80" t="n">
-        <v>61.9004</v>
+        <v>160.6597</v>
       </c>
       <c r="G80" t="n">
-        <v>54.3949</v>
+        <v>162.5918</v>
       </c>
       <c r="H80" t="n">
-        <v>47.7995</v>
+        <v>164.5471</v>
       </c>
       <c r="I80" t="n">
-        <v>42.0037</v>
+        <v>166.526</v>
       </c>
       <c r="J80" t="n">
-        <v>36.9107</v>
+        <v>168.5286</v>
       </c>
       <c r="K80" t="n">
-        <v>32.4353</v>
+        <v>170.5554</v>
       </c>
       <c r="L80" t="n">
-        <v>28.5025</v>
+        <v>172.6065</v>
       </c>
       <c r="M80" t="n">
-        <v>25.0465</v>
+        <v>174.6822</v>
       </c>
     </row>
     <row r="81">
@@ -3760,22 +3760,22 @@
         <v>42</v>
       </c>
       <c r="C81" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="G81" t="n">
         <v>-0.0008</v>
       </c>
-      <c r="D81" t="n">
-        <v>-0.0006</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.0006</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
         <v>-0.0005</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-0.0004</v>
       </c>
       <c r="I81" t="n">
         <v>-0.0004</v>
@@ -3784,13 +3784,13 @@
         <v>-0.0005</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.0004</v>
+        <v>-0.0007</v>
       </c>
       <c r="L81" t="n">
         <v>-0.0004</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.0003</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="82">
@@ -3801,37 +3801,37 @@
         <v>42</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2625</v>
+        <v>-0.2282</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.2554</v>
+        <v>-0.2053</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.0784</v>
+        <v>-0.057</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.1118</v>
+        <v>-0.099</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2447</v>
+        <v>-0.2137</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.0886</v>
+        <v>-0.0711</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.042</v>
+        <v>-0.0399</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.0428</v>
+        <v>-0.0365</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.0309</v>
+        <v>-0.0223</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.0221</v>
+        <v>-0.0119</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.02</v>
+        <v>-0.0056</v>
       </c>
     </row>
   </sheetData>
